--- a/biology/Zoologie/Hime/Hime.xlsx
+++ b/biology/Zoologie/Hime/Hime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hime est un genre de poissons osseux marins de la famille des Aulopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hime est un genre de poissons osseux marins de la famille des Aulopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (21 décembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (21 décembre 2023) :
 Hime capitonis Gomon &amp; Struthers, 2015
 Hime caudizoma Gomon &amp; Struthers, 2015
 Hime curtirostris (Thomson, 1967)
@@ -550,9 +564,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hime a été créé en 1924 par l’ichtyologiste américain Edwin Chapin Starks (1867-1932) avec pour espèce type Hime japonica (Günther, 1877)[1], initialement décrite sous le protonyme Aulopus japonicus[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hime a été créé en 1924 par l’ichtyologiste américain Edwin Chapin Starks (1867-1932) avec pour espèce type Hime japonica (Günther, 1877), initialement décrite sous le protonyme Aulopus japonicus,.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hime vient du japonais hime « princesse », qui selon Starks signifiait "demoiselle poisson"[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hime vient du japonais hime « princesse », qui selon Starks signifiait "demoiselle poisson".
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Edwin C. Starks, « Hime, a new genus of fishes related to Aulopus », Copeia, États-Unis, no 127,‎ 29 mars 1924, p. 30 (ISSN 0045-8511, e-ISSN 1938-5110, lire en ligne, consulté le 21 décembre).</t>
         </is>
